--- a/src/test/resources/testdata/testData.xlsx
+++ b/src/test/resources/testdata/testData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\dsalgo_ninjalinos-BDD\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61E8C82B-2E41-4B79-84E2-9A3BFA07F7ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D110470-DEC2-4FE8-980B-897F62ED5092}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{0115BC9B-6D92-47C7-9547-34A77FBE44D5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" activeTab="1" xr2:uid="{0115BC9B-6D92-47C7-9547-34A77FBE44D5}"/>
   </bookViews>
   <sheets>
     <sheet name="TextEditor" sheetId="1" r:id="rId1"/>
+    <sheet name="credentials" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Valid Code</t>
   </si>
@@ -52,19 +53,44 @@
   </si>
   <si>
     <t>Hello World</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>ninjalinos@work.com</t>
+  </si>
+  <si>
+    <t>sdet218920@</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -87,8 +113,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,7 +433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2C8A219-A3E7-414E-8157-F48EFA2DEC9B}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -452,4 +480,40 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B861D3D5-735F-4741-95FD-F5379CAA3E3D}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/test/resources/testdata/testData.xlsx
+++ b/src/test/resources/testdata/testData.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\dsalgo_ninjalinos-BDD\src\test\resources\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arpitgupta/git/dsalgo_ninjalinos-BDD/src/test/resources/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D110470-DEC2-4FE8-980B-897F62ED5092}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FFE877-149B-094B-9987-EC8F73D2884D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" activeTab="1" xr2:uid="{0115BC9B-6D92-47C7-9547-34A77FBE44D5}"/>
+    <workbookView xWindow="6100" yWindow="8440" windowWidth="15340" windowHeight="8200" activeTab="1" xr2:uid="{0115BC9B-6D92-47C7-9547-34A77FBE44D5}"/>
   </bookViews>
   <sheets>
-    <sheet name="TextEditor" sheetId="1" r:id="rId1"/>
+    <sheet name="textEditor" sheetId="1" r:id="rId1"/>
     <sheet name="credentials" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
@@ -135,9 +135,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -175,7 +175,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -281,7 +281,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -423,7 +423,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -437,16 +437,16 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,7 +466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -490,13 +490,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -504,7 +504,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>

--- a/src/test/resources/testdata/testData.xlsx
+++ b/src/test/resources/testdata/testData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\link2\git\dsalgo_ninjalinos-BDD\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7140CFB5-16FE-4B55-A330-29643202B28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC4D837-23B7-40D7-89CA-89DE99F6CF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TextEditor" sheetId="1" r:id="rId1"/>
+    <sheet name="Credentials" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Valid Code</t>
   </si>
@@ -52,6 +53,18 @@
   </si>
   <si>
     <t>Hello World</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>ninjalinos@work.com</t>
+  </si>
+  <si>
+    <t>sdet218920@</t>
   </si>
 </sst>
 </file>
@@ -75,7 +88,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -85,6 +98,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6373BA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -101,12 +120,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,7 +410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -440,4 +461,41 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC485B4-E369-434B-9C6D-7660A3A7134F}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F14" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/testdata/testData.xlsx
+++ b/src/test/resources/testdata/testData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arpitgupta/git/dsalgo_ninjalinos-BDD/src/test/resources/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FFE877-149B-094B-9987-EC8F73D2884D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D20A1E-FAB6-BC48-B67D-4495BBF7613F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6100" yWindow="8440" windowWidth="15340" windowHeight="8200" activeTab="1" xr2:uid="{0115BC9B-6D92-47C7-9547-34A77FBE44D5}"/>
+    <workbookView xWindow="4680" yWindow="2980" windowWidth="22980" windowHeight="10640" activeTab="1" xr2:uid="{0115BC9B-6D92-47C7-9547-34A77FBE44D5}"/>
   </bookViews>
   <sheets>
     <sheet name="textEditor" sheetId="1" r:id="rId1"/>
-    <sheet name="credentials" sheetId="2" r:id="rId2"/>
+    <sheet name="practiceQ" sheetId="3" r:id="rId2"/>
+    <sheet name="credentials" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Valid Code</t>
   </si>
@@ -65,6 +66,18 @@
   </si>
   <si>
     <t>sdet218920@</t>
+  </si>
+  <si>
+    <t>Valid code</t>
+  </si>
+  <si>
+    <t>Invalid Code</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>print 'hello'</t>
   </si>
 </sst>
 </file>
@@ -113,10 +126,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,10 +503,47 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71214FDB-D257-C046-BAFA-1DA8504A6E6F}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="69" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B861D3D5-735F-4741-95FD-F5379CAA3E3D}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/testdata/testData.xlsx
+++ b/src/test/resources/testdata/testData.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arpitgupta/git/dsalgo_ninjalinos-BDD/src/test/resources/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D20A1E-FAB6-BC48-B67D-4495BBF7613F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0337DC1B-CB88-C046-BA79-3ADC6C9271A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="2980" windowWidth="22980" windowHeight="10640" activeTab="1" xr2:uid="{0115BC9B-6D92-47C7-9547-34A77FBE44D5}"/>
+    <workbookView xWindow="4680" yWindow="2980" windowWidth="22980" windowHeight="10640" xr2:uid="{0115BC9B-6D92-47C7-9547-34A77FBE44D5}"/>
   </bookViews>
   <sheets>
-    <sheet name="textEditor" sheetId="1" r:id="rId1"/>
-    <sheet name="practiceQ" sheetId="3" r:id="rId2"/>
-    <sheet name="credentials" sheetId="2" r:id="rId3"/>
+    <sheet name="TextEditor" sheetId="1" r:id="rId1"/>
+    <sheet name="Credentials" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Valid Code</t>
   </si>
@@ -66,18 +65,6 @@
   </si>
   <si>
     <t>sdet218920@</t>
-  </si>
-  <si>
-    <t>Valid code</t>
-  </si>
-  <si>
-    <t>Invalid Code</t>
-  </si>
-  <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>print 'hello'</t>
   </si>
 </sst>
 </file>
@@ -126,17 +113,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2C8A219-A3E7-414E-8157-F48EFA2DEC9B}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -503,43 +483,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71214FDB-D257-C046-BAFA-1DA8504A6E6F}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="69" style="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B861D3D5-735F-4741-95FD-F5379CAA3E3D}">
   <dimension ref="A1:B2"/>
   <sheetViews>

--- a/src/test/resources/testdata/testData.xlsx
+++ b/src/test/resources/testdata/testData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\link2\git\dsalgo_ninjalinos-BDD\src\test\resources\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\dsalgo_ninjalinos-BDD\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC4D837-23B7-40D7-89CA-89DE99F6CF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E6E5FC5-70E8-4E12-9918-49A8B59950BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TextEditor" sheetId="1" r:id="rId1"/>
@@ -414,16 +414,16 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -443,7 +443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -454,7 +454,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
     </row>
   </sheetData>
@@ -471,12 +471,12 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -484,7 +484,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -492,7 +492,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F14" s="4"/>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/testData.xlsx
+++ b/src/test/resources/testdata/testData.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\dsalgo_ninjalinos-BDD\src\test\resources\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\link2\git\dsalgo_ninjalinos-BDD\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E6E5FC5-70E8-4E12-9918-49A8B59950BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55071127-D7A5-4F9A-8C41-15DFD28C894C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TextEditor" sheetId="1" r:id="rId1"/>
     <sheet name="Credentials" sheetId="2" r:id="rId2"/>
+    <sheet name="login" sheetId="3" r:id="rId3"/>
+    <sheet name="validlogin" sheetId="4" r:id="rId4"/>
+    <sheet name="register" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
   <si>
     <t>Valid Code</t>
   </si>
@@ -65,13 +68,46 @@
   </si>
   <si>
     <t>sdet218920@</t>
+  </si>
+  <si>
+    <t>error_message</t>
+  </si>
+  <si>
+    <t>Please fill out this field</t>
+  </si>
+  <si>
+    <t>ninjalinos</t>
+  </si>
+  <si>
+    <t>asdfew</t>
+  </si>
+  <si>
+    <t>Invalid Username and Password</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>confirmpassword</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>abcdef</t>
+  </si>
+  <si>
+    <t>missmathch password</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +122,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -120,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -128,6 +170,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,20 +453,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -443,7 +486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -454,7 +497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
     </row>
   </sheetData>
@@ -467,16 +510,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC485B4-E369-434B-9C6D-7660A3A7134F}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -484,7 +527,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -492,8 +535,195 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F14" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00771E92-819C-4B32-9C8D-498C4FB76C3B}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="29.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="C2" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7573E115-FC47-4006-8E76-6CC78A7598A4}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C1AFCE-D532-4E9C-B604-26F9C2802C01}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="D2" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
